--- a/blind_zones.xlsx
+++ b/blind_zones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="405" windowWidth="24675" windowHeight="12300"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="24675" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60,6 +83,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="390525" y="0"/>
+          <a:ext cx="1619250" cy="1962151"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,13 +421,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/blind_zones.xlsx
+++ b/blind_zones.xlsx
@@ -2,21 +2,73 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="465" windowWidth="24675" windowHeight="12240"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="24675" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="a">Sheet1!$M$2</definedName>
+    <definedName name="Cx">Sheet1!$M$9</definedName>
+    <definedName name="Cy">Sheet1!$M$10</definedName>
+    <definedName name="dx">Sheet1!$M$4</definedName>
+    <definedName name="dy">Sheet1!$M$5</definedName>
+    <definedName name="h0">Sheet1!$M$3</definedName>
+    <definedName name="N">Sheet1!$M$8</definedName>
+    <definedName name="Nx">Sheet1!$M$6</definedName>
+    <definedName name="Ny">Sheet1!$M$7</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>h0=</t>
+  </si>
+  <si>
+    <t>dx=</t>
+  </si>
+  <si>
+    <t>dy=</t>
+  </si>
+  <si>
+    <t>Nx=</t>
+  </si>
+  <si>
+    <t>Ny=</t>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
+  <si>
+    <t>_x</t>
+  </si>
+  <si>
+    <t>_y</t>
+  </si>
+  <si>
+    <t>Cx</t>
+  </si>
+  <si>
+    <t>Cy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -67,10 +119,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,19 +150,571 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="50"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="590553600"/>
+        <c:axId val="35179904"/>
+        <c:axId val="589654528"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="590553600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="35179904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="35179904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="590553600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="589654528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="35179904"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT/>
+    </a:sp3d>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -129,6 +746,117 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561214</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="209550"/>
+          <a:ext cx="6095239" cy="6095239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>328486</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="0"/>
+          <a:ext cx="3138361" cy="6791325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -421,136 +1149,1339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="6" customWidth="1"/>
+    <col min="1" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="18" width="5.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="36" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+    <row r="2" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:X11" si="0">$N2-Cy</f>
+        <v>4.5</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" ref="AA2:AJ11" si="1">AA$12-Cx</f>
+        <v>-4.5</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+    <row r="3" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N3" s="3">
+        <v>8</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG3" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+    <row r="4" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+    <row r="5" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>6</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+    <row r="6" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+    <row r="7" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+    <row r="8" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC8" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE8" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+    <row r="9" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <f>(Nx-1)/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC9" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE9" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+    <row r="10" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f>(Ny-1)/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC10" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE10" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AB11" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AC11" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AD11" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE11" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH11" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI11" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>3</v>
+      </c>
+      <c r="S12" s="5">
+        <v>4</v>
+      </c>
+      <c r="T12" s="5">
+        <v>5</v>
+      </c>
+      <c r="U12" s="5">
+        <v>6</v>
+      </c>
+      <c r="V12" s="5">
+        <v>7</v>
+      </c>
+      <c r="W12" s="5">
+        <v>8</v>
+      </c>
+      <c r="X12" s="5">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>7</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>8</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f>RADIANS(15)</f>
+        <v>0.26179938779914941</v>
+      </c>
+    </row>
+    <row r="20" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f>DEGREES(0.05)</f>
+        <v>2.8647889756541165</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -560,18 +2491,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="N3:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
